--- a/Relatório Técnico/Cronograma.xlsx
+++ b/Relatório Técnico/Cronograma.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Desktop\TCC\Relatório Técnico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="987"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,44 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>fev</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>abr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>maio</t>
   </si>
   <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>jul</t>
-  </si>
-  <si>
-    <t>ago</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>dez</t>
-  </si>
-  <si>
     <t>Levantamento Requisitos</t>
   </si>
   <si>
@@ -81,10 +48,40 @@
     <t>Seminário</t>
   </si>
   <si>
-    <t xml:space="preserve">    x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    x </t>
+    <t>jan.</t>
+  </si>
+  <si>
+    <t>fev.</t>
+  </si>
+  <si>
+    <t>mar.</t>
+  </si>
+  <si>
+    <t>abr.</t>
+  </si>
+  <si>
+    <t>jun.</t>
+  </si>
+  <si>
+    <t>jul.</t>
+  </si>
+  <si>
+    <t>ago.</t>
+  </si>
+  <si>
+    <t>set.</t>
+  </si>
+  <si>
+    <t>out.</t>
+  </si>
+  <si>
+    <t>nov.</t>
+  </si>
+  <si>
+    <t>dez.</t>
+  </si>
+  <si>
+    <t>Etapa</t>
   </si>
 </sst>
 </file>
@@ -104,7 +101,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <scheme val="major"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -112,18 +109,42 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <scheme val="major"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1E6C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81BA5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -131,20 +152,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF81BA5A"/>
+      <color rgb="FFD1E6C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -197,18 +272,18 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Times New Roman-fonte Arial">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Times New Roman" panose="02020603050405020304"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐ明朝"/>
-        <a:font script="Hang" typeface="바탕"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -234,16 +309,16 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="돋움"/>
-        <a:font script="Hans" typeface="黑体"/>
-        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -419,189 +494,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="13" width="5.625" customWidth="1"/>
-    <col min="14" max="1025" width="11.625"/>
+    <col min="1" max="1" width="22.75"/>
+    <col min="2" max="13" width="5.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -610,23 +626,15 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -636,55 +644,31 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -693,66 +677,14 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N15" s="1"/>
+      <c r="M9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>